--- a/InsideEV_2017.xlsx
+++ b/InsideEV_2017.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dane/Dropbox/Data/EV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dane/src/evsales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DDD1B5-39DF-604B-AF6F-0FFB3DC45E75}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE7EF0C-54AB-9547-9385-D89E27E4DAEE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="13720" windowWidth="20060" windowHeight="12780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16620" yWindow="14040" windowWidth="20060" windowHeight="12780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>BMW i3</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Honda Clarity BEV</t>
+  </si>
+  <si>
+    <t>Kia Soul EV</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD12"/>
+  <dimension ref="A1:XFD13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -860,6 +863,47 @@
         <v>527</v>
       </c>
     </row>
+    <row r="13" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>117</v>
+      </c>
+      <c r="C13">
+        <v>152</v>
+      </c>
+      <c r="D13">
+        <v>171</v>
+      </c>
+      <c r="E13">
+        <v>167</v>
+      </c>
+      <c r="F13">
+        <v>129</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>145</v>
+      </c>
+      <c r="I13">
+        <v>300</v>
+      </c>
+      <c r="J13">
+        <v>255</v>
+      </c>
+      <c r="K13">
+        <v>210</v>
+      </c>
+      <c r="L13">
+        <v>207</v>
+      </c>
+      <c r="M13">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
